--- a/experiment/quadratic/ex9.2.2/Experimentos_Generador/ex9.2.2(Quadratic)__Strong_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/quadratic/ex9.2.2/Experimentos_Generador/ex9.2.2(Quadratic)__Strong_Stationarygenerator_alpha_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -57,16 +57,16 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>-x + y</t>
-  </si>
-  <si>
-    <t>0.019863716022031852</t>
+    <t>0.049999999999998934 - x + y</t>
+  </si>
+  <si>
+    <t>-0.049999999999998934</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.8020510098547599</t>
+    <t>0.4</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -78,58 +78,55 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-20 + x + y</t>
-  </si>
-  <si>
-    <t>1.5993165322878884</t>
+    <t>-28.85 + x + y</t>
+  </si>
+  <si>
+    <t>8.85</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.6464346595315031</t>
-  </si>
-  <si>
-    <t>0.8840837472223168</t>
-  </si>
-  <si>
-    <t>0.16688846033396598</t>
-  </si>
-  <si>
-    <t>-y</t>
-  </si>
-  <si>
-    <t>-10.80959012415496</t>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>14.4 - y</t>
+  </si>
+  <si>
+    <t>-14.4</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.5539024619887478</t>
-  </si>
-  <si>
-    <t>0.1910147871352611</t>
-  </si>
-  <si>
-    <t>0.34107730458469143</t>
-  </si>
-  <si>
-    <t>-20 + y</t>
-  </si>
-  <si>
-    <t>-9.19040987584504</t>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>5.699999999999999</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>-25.6 + y</t>
+  </si>
+  <si>
+    <t>-5.6</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.9093084279442455</t>
-  </si>
-  <si>
-    <t>0.1635672399630047</t>
-  </si>
-  <si>
-    <t>0.2639796485744117</t>
+    <t>3.3000000000000003</t>
+  </si>
+  <si>
+    <t>2.3000000000000003</t>
   </si>
   <si>
     <t>x</t>
@@ -138,25 +135,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>10.789726408132928</t>
-  </si>
-  <si>
-    <t>10.80959012415496</t>
+    <t>14.45</t>
+  </si>
+  <si>
+    <t>14.4</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-10.637467251258395</t>
+    <t>-53.65</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-21.661485553633412</t>
-  </si>
-  <si>
-    <t>-3.2778674582147405</t>
+    <t>-31.7</t>
+  </si>
+  <si>
+    <t>-10.000000000000002</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -658,13 +655,13 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -682,18 +679,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -711,12 +708,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -734,17 +731,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -762,7 +759,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1">
